--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_9_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_9_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-209873.4680287065</v>
+        <v>-212076.8492954417</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7228504.546025763</v>
+        <v>7228504.546025762</v>
       </c>
     </row>
     <row r="8">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>16.41405855589744</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.9784892908473</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>66.68481042223273</v>
+        <v>66.6848104222328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>35.0073518458664</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>251.2397130498935</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>105.3924852342977</v>
       </c>
       <c r="I3" t="n">
-        <v>26.39006894791255</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>56.16649553541992</v>
       </c>
       <c r="S3" t="n">
         <v>158.5224393262212</v>
@@ -792,7 +792,7 @@
         <v>197.3088343610248</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8947679188345</v>
+        <v>196.1183413313259</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -820,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>14.37271629943849</v>
       </c>
       <c r="G4" t="n">
-        <v>111.6256692341121</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>51.3625200835392</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>298.1703050854968</v>
       </c>
       <c r="D5" t="n">
-        <v>254.327166041249</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,7 +950,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773036</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>137.6226750441173</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>99.44420492154106</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>277.5024856591021</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>300.0433127626324</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>73.31370764131945</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>43.31785343913981</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>202.9183498227707</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>337.2085901466679</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>83.47425054667281</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>147.5468990697483</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873204</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292631</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>283.8758740715556</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>74.75821823676775</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>74.75769145492373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>94.31414135199638</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -2290,10 +2290,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>186.6258780365251</v>
       </c>
       <c r="U22" t="n">
-        <v>89.23637086262187</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>73.53720539716817</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>114.4746605491548</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>74.75769145492382</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>149.5516258167725</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>74.75769145492337</v>
+        <v>74.75769145492362</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -3235,7 +3235,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>84.69473660442752</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>181.4487096095774</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>350.8780802755081</v>
+        <v>350.8780802755082</v>
       </c>
       <c r="C35" t="n">
-        <v>333.4171303830351</v>
+        <v>333.4171303830352</v>
       </c>
       <c r="D35" t="n">
-        <v>322.8272802327105</v>
+        <v>322.8272802327106</v>
       </c>
       <c r="E35" t="n">
-        <v>350.0746086842893</v>
+        <v>350.0746086842894</v>
       </c>
       <c r="F35" t="n">
-        <v>375.0202843537389</v>
+        <v>375.020284353739</v>
       </c>
       <c r="G35" t="n">
-        <v>379.0659642654809</v>
+        <v>379.0659642654811</v>
       </c>
       <c r="H35" t="n">
-        <v>262.752002999348</v>
+        <v>262.7520029993481</v>
       </c>
       <c r="I35" t="n">
-        <v>9.721168384953472</v>
+        <v>9.721168384953554</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>77.33200040020336</v>
+        <v>77.33200040020344</v>
       </c>
       <c r="T35" t="n">
         <v>172.0622087516477</v>
       </c>
       <c r="U35" t="n">
-        <v>219.1394105709295</v>
+        <v>219.1394105709296</v>
       </c>
       <c r="V35" t="n">
         <v>295.8964970821625</v>
       </c>
       <c r="W35" t="n">
-        <v>317.3852073294405</v>
+        <v>317.3852073294406</v>
       </c>
       <c r="X35" t="n">
-        <v>337.8753392904965</v>
+        <v>337.8753392904966</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.3821772680811</v>
+        <v>354.3821772680812</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>147.9762187939648</v>
+        <v>147.9762187939649</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>6.270971601323041</v>
       </c>
       <c r="D37" t="n">
-        <v>116.7597116302399</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>114.5782012585967</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>65.89425789566073</v>
+        <v>113.5652866349589</v>
       </c>
       <c r="G37" t="n">
-        <v>134.1700468710557</v>
+        <v>134.1700468710558</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>112.8992535263484</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>64.4966590218657</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.07639128207485</v>
+        <v>57.07639128207494</v>
       </c>
       <c r="S37" t="n">
-        <v>157.9132639434694</v>
+        <v>157.9132639434695</v>
       </c>
       <c r="T37" t="n">
-        <v>187.6931878881967</v>
+        <v>187.6931878881968</v>
       </c>
       <c r="U37" t="n">
-        <v>254.3560768176404</v>
+        <v>254.3560768176405</v>
       </c>
       <c r="V37" t="n">
-        <v>220.2818819358555</v>
+        <v>220.2818819358556</v>
       </c>
       <c r="W37" t="n">
-        <v>254.6672369486185</v>
+        <v>254.6672369486186</v>
       </c>
       <c r="X37" t="n">
-        <v>193.8538940010647</v>
+        <v>193.8538940010648</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.7288919641223</v>
+        <v>186.7288919641224</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124525</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3916,7 +3916,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1425.172363554293</v>
+        <v>1021.377838044553</v>
       </c>
       <c r="C2" t="n">
-        <v>1056.209846613882</v>
+        <v>1021.377838044553</v>
       </c>
       <c r="D2" t="n">
-        <v>1039.629989486712</v>
+        <v>1021.377838044553</v>
       </c>
       <c r="E2" t="n">
-        <v>1039.629989486712</v>
+        <v>635.5895854463084</v>
       </c>
       <c r="F2" t="n">
         <v>628.644084697105</v>
@@ -4325,55 +4325,55 @@
         <v>210.48399450433</v>
       </c>
       <c r="I2" t="n">
-        <v>49.45085318761129</v>
+        <v>49.45085318761127</v>
       </c>
       <c r="J2" t="n">
         <v>148.8910303254279</v>
       </c>
       <c r="K2" t="n">
-        <v>418.6708828959939</v>
+        <v>418.6708828959937</v>
       </c>
       <c r="L2" t="n">
-        <v>805.6332731184026</v>
+        <v>805.6332731184023</v>
       </c>
       <c r="M2" t="n">
-        <v>1252.810037384148</v>
+        <v>1252.810037384147</v>
       </c>
       <c r="N2" t="n">
         <v>1692.590591658813</v>
       </c>
       <c r="O2" t="n">
-        <v>2062.675260521428</v>
+        <v>2062.675260521427</v>
       </c>
       <c r="P2" t="n">
-        <v>2340.859580276713</v>
+        <v>2340.859580276712</v>
       </c>
       <c r="Q2" t="n">
-        <v>2472.542659380565</v>
+        <v>2472.542659380563</v>
       </c>
       <c r="R2" t="n">
-        <v>2405.184265014673</v>
+        <v>2405.184265014671</v>
       </c>
       <c r="S2" t="n">
-        <v>2405.184265014673</v>
+        <v>2369.8233035542</v>
       </c>
       <c r="T2" t="n">
-        <v>2405.184265014673</v>
+        <v>2369.8233035542</v>
       </c>
       <c r="U2" t="n">
-        <v>2151.406777085487</v>
+        <v>2116.045815625015</v>
       </c>
       <c r="V2" t="n">
-        <v>2151.406777085487</v>
+        <v>1784.982928281444</v>
       </c>
       <c r="W2" t="n">
-        <v>1798.638121815373</v>
+        <v>1784.982928281444</v>
       </c>
       <c r="X2" t="n">
-        <v>1425.172363554293</v>
+        <v>1411.517170020364</v>
       </c>
       <c r="Y2" t="n">
-        <v>1425.172363554293</v>
+        <v>1021.377838044553</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>811.7239962017018</v>
+        <v>785.06736090078</v>
       </c>
       <c r="C3" t="n">
-        <v>637.2709669205748</v>
+        <v>610.6143316196531</v>
       </c>
       <c r="D3" t="n">
-        <v>488.3365572593235</v>
+        <v>461.6799219584017</v>
       </c>
       <c r="E3" t="n">
-        <v>329.099102253868</v>
+        <v>302.4424669529462</v>
       </c>
       <c r="F3" t="n">
-        <v>182.564544280753</v>
+        <v>155.9079089798312</v>
       </c>
       <c r="G3" t="n">
-        <v>182.564544280753</v>
+        <v>155.9079089798312</v>
       </c>
       <c r="H3" t="n">
-        <v>76.10748848853306</v>
+        <v>49.45085318761127</v>
       </c>
       <c r="I3" t="n">
-        <v>49.45085318761129</v>
+        <v>49.45085318761127</v>
       </c>
       <c r="J3" t="n">
-        <v>114.9833617744797</v>
+        <v>114.9833617744796</v>
       </c>
       <c r="K3" t="n">
-        <v>353.6096999286441</v>
+        <v>353.6096999286439</v>
       </c>
       <c r="L3" t="n">
-        <v>735.87665618292</v>
+        <v>735.8766561829196</v>
       </c>
       <c r="M3" t="n">
         <v>1233.943385404471</v>
       </c>
       <c r="N3" t="n">
-        <v>1581.372797461612</v>
+        <v>1760.899472292166</v>
       </c>
       <c r="O3" t="n">
-        <v>1997.018989484881</v>
+        <v>2176.545664315434</v>
       </c>
       <c r="P3" t="n">
-        <v>2313.608634921734</v>
+        <v>2472.542659380563</v>
       </c>
       <c r="Q3" t="n">
-        <v>2472.542659380565</v>
+        <v>2472.542659380563</v>
       </c>
       <c r="R3" t="n">
-        <v>2472.542659380565</v>
+        <v>2415.808825506402</v>
       </c>
       <c r="S3" t="n">
-        <v>2312.418983293473</v>
+        <v>2255.68514941931</v>
       </c>
       <c r="T3" t="n">
-        <v>2113.117130403549</v>
+        <v>2056.383296529386</v>
       </c>
       <c r="U3" t="n">
-        <v>1884.940597152201</v>
+        <v>1858.283961851279</v>
       </c>
       <c r="V3" t="n">
-        <v>1649.788488920458</v>
+        <v>1623.131853619536</v>
       </c>
       <c r="W3" t="n">
-        <v>1395.551132192257</v>
+        <v>1368.894496891335</v>
       </c>
       <c r="X3" t="n">
-        <v>1187.699631986724</v>
+        <v>1161.042996685802</v>
       </c>
       <c r="Y3" t="n">
-        <v>979.9393332217699</v>
+        <v>953.282697920848</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>361.9984814342986</v>
+        <v>361.9984814342982</v>
       </c>
       <c r="C4" t="n">
-        <v>361.9984814342986</v>
+        <v>361.9984814342982</v>
       </c>
       <c r="D4" t="n">
-        <v>361.9984814342986</v>
+        <v>211.8818420219625</v>
       </c>
       <c r="E4" t="n">
-        <v>214.0853878519055</v>
+        <v>63.96874843956934</v>
       </c>
       <c r="F4" t="n">
-        <v>214.0853878519055</v>
+        <v>49.45085318761127</v>
       </c>
       <c r="G4" t="n">
-        <v>101.3321866053276</v>
+        <v>49.45085318761127</v>
       </c>
       <c r="H4" t="n">
-        <v>101.3321866053276</v>
+        <v>49.45085318761127</v>
       </c>
       <c r="I4" t="n">
-        <v>101.3321866053276</v>
+        <v>49.45085318761127</v>
       </c>
       <c r="J4" t="n">
-        <v>49.45085318761129</v>
+        <v>49.45085318761127</v>
       </c>
       <c r="K4" t="n">
-        <v>95.72733544563116</v>
+        <v>95.72733544563108</v>
       </c>
       <c r="L4" t="n">
-        <v>210.4717349036525</v>
+        <v>210.4717349036523</v>
       </c>
       <c r="M4" t="n">
-        <v>341.8427388746852</v>
+        <v>341.8427388746849</v>
       </c>
       <c r="N4" t="n">
-        <v>475.5246504217713</v>
+        <v>475.524650421771</v>
       </c>
       <c r="O4" t="n">
-        <v>582.9852372653899</v>
+        <v>582.9852372653894</v>
       </c>
       <c r="P4" t="n">
-        <v>651.4156514712593</v>
+        <v>651.4156514712588</v>
       </c>
       <c r="Q4" t="n">
-        <v>651.4156514712593</v>
+        <v>651.4156514712588</v>
       </c>
       <c r="R4" t="n">
-        <v>651.4156514712593</v>
+        <v>651.4156514712588</v>
       </c>
       <c r="S4" t="n">
-        <v>651.4156514712593</v>
+        <v>651.4156514712588</v>
       </c>
       <c r="T4" t="n">
-        <v>651.4156514712593</v>
+        <v>651.4156514712588</v>
       </c>
       <c r="U4" t="n">
-        <v>651.4156514712593</v>
+        <v>651.4156514712588</v>
       </c>
       <c r="V4" t="n">
-        <v>651.4156514712593</v>
+        <v>651.4156514712588</v>
       </c>
       <c r="W4" t="n">
-        <v>361.9984814342986</v>
+        <v>361.9984814342982</v>
       </c>
       <c r="X4" t="n">
-        <v>361.9984814342986</v>
+        <v>361.9984814342982</v>
       </c>
       <c r="Y4" t="n">
-        <v>361.9984814342986</v>
+        <v>361.9984814342982</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1894.539591564834</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="C5" t="n">
-        <v>1525.577074624422</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.680947310029</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117851</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224075</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>1894.539591564834</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X5" t="n">
-        <v>1894.539591564834</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="Y5" t="n">
-        <v>1894.539591564834</v>
+        <v>1695.806495672433</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>361.80799380017</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>361.80799380017</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>361.80799380017</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>361.80799380017</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="X7" t="n">
-        <v>361.80799380017</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="Y7" t="n">
-        <v>361.80799380017</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1465.195303554219</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C8" t="n">
-        <v>1465.195303554219</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>1465.195303554219</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>1079.407050955975</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2085.284562891219</v>
       </c>
       <c r="W8" t="n">
-        <v>1838.661061815299</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="X8" t="n">
-        <v>1465.195303554219</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="Y8" t="n">
-        <v>1465.195303554219</v>
+        <v>1732.515907621104</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4887,10 +4887,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>654.0747340636873</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>654.0747340636873</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>654.0747340636873</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4999,13 +4999,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2327.655606731672</v>
+        <v>2352.00154440734</v>
       </c>
       <c r="C11" t="n">
-        <v>1958.69308979126</v>
+        <v>1983.039027466928</v>
       </c>
       <c r="D11" t="n">
-        <v>1600.42739118451</v>
+        <v>1642.424289945041</v>
       </c>
       <c r="E11" t="n">
-        <v>1214.639138586266</v>
+        <v>1256.636037346797</v>
       </c>
       <c r="F11" t="n">
-        <v>803.6532337966582</v>
+        <v>845.6501325571894</v>
       </c>
       <c r="G11" t="n">
-        <v>388.5807836416549</v>
+        <v>430.577682402186</v>
       </c>
       <c r="H11" t="n">
-        <v>90.99718325042214</v>
+        <v>132.9940820109532</v>
       </c>
       <c r="I11" t="n">
         <v>90.99718325042214</v>
       </c>
       <c r="J11" t="n">
-        <v>447.2819632298007</v>
+        <v>447.2819632298006</v>
       </c>
       <c r="K11" t="n">
         <v>1102.0052953651</v>
       </c>
       <c r="L11" t="n">
-        <v>1553.039508613509</v>
+        <v>1670.666357724074</v>
       </c>
       <c r="M11" t="n">
-        <v>2086.571413285434</v>
+        <v>2204.198262395998</v>
       </c>
       <c r="N11" t="n">
-        <v>2633.350230344216</v>
+        <v>2750.977079454781</v>
       </c>
       <c r="O11" t="n">
-        <v>3253.949550334117</v>
+        <v>3253.949550334118</v>
       </c>
       <c r="P11" t="n">
         <v>3967.304637781063</v>
@@ -5069,22 +5069,22 @@
         <v>4439.568494048202</v>
       </c>
       <c r="T11" t="n">
-        <v>4233.590746432424</v>
+        <v>4439.568494048202</v>
       </c>
       <c r="U11" t="n">
-        <v>3980.06026970626</v>
+        <v>4186.038017322038</v>
       </c>
       <c r="V11" t="n">
-        <v>3648.99738236269</v>
+        <v>3854.975129978468</v>
       </c>
       <c r="W11" t="n">
-        <v>3296.228727092575</v>
+        <v>3502.206474708353</v>
       </c>
       <c r="X11" t="n">
-        <v>2922.762968831496</v>
+        <v>3128.740716447273</v>
       </c>
       <c r="Y11" t="n">
-        <v>2532.623636855683</v>
+        <v>2738.601384471462</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>966.0289212993471</v>
+        <v>966.028921299348</v>
       </c>
       <c r="C12" t="n">
-        <v>791.5758920182201</v>
+        <v>791.575892018221</v>
       </c>
       <c r="D12" t="n">
-        <v>642.6414823569689</v>
+        <v>642.6414823569698</v>
       </c>
       <c r="E12" t="n">
-        <v>483.4040273515134</v>
+        <v>483.4040273515143</v>
       </c>
       <c r="F12" t="n">
-        <v>336.8694693783984</v>
+        <v>336.8694693783993</v>
       </c>
       <c r="G12" t="n">
-        <v>200.5063692110172</v>
+        <v>200.5063692110176</v>
       </c>
       <c r="H12" t="n">
         <v>110.0044748488846</v>
@@ -5118,52 +5118,52 @@
         <v>90.99718325042214</v>
       </c>
       <c r="J12" t="n">
-        <v>184.6744527410393</v>
+        <v>184.6744527410398</v>
       </c>
       <c r="K12" t="n">
-        <v>422.9386517213867</v>
+        <v>422.9386517213871</v>
       </c>
       <c r="L12" t="n">
-        <v>789.6368120340518</v>
+        <v>789.6368120340526</v>
       </c>
       <c r="M12" t="n">
-        <v>1236.913137256367</v>
+        <v>1236.913137256369</v>
       </c>
       <c r="N12" t="n">
-        <v>1710.436180810822</v>
+        <v>1710.436180810823</v>
       </c>
       <c r="O12" t="n">
-        <v>2121.397460228877</v>
+        <v>2121.397460228878</v>
       </c>
       <c r="P12" t="n">
-        <v>2431.89705170498</v>
+        <v>2431.897051704981</v>
       </c>
       <c r="Q12" t="n">
-        <v>2589.53860935158</v>
+        <v>2589.538609351581</v>
       </c>
       <c r="R12" t="n">
-        <v>2589.394255944095</v>
+        <v>2589.394255944096</v>
       </c>
       <c r="S12" t="n">
-        <v>2459.956369437575</v>
+        <v>2459.956369437576</v>
       </c>
       <c r="T12" t="n">
-        <v>2267.313369115431</v>
+        <v>2267.313369115432</v>
       </c>
       <c r="U12" t="n">
-        <v>2039.245522249846</v>
+        <v>2039.245522249847</v>
       </c>
       <c r="V12" t="n">
-        <v>1804.093414018104</v>
+        <v>1804.093414018105</v>
       </c>
       <c r="W12" t="n">
-        <v>1549.856057289902</v>
+        <v>1549.856057289903</v>
       </c>
       <c r="X12" t="n">
-        <v>1342.004557084369</v>
+        <v>1342.00455708437</v>
       </c>
       <c r="Y12" t="n">
-        <v>1134.244258319415</v>
+        <v>1134.244258319416</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>494.367430385284</v>
+        <v>871.8831225804813</v>
       </c>
       <c r="C13" t="n">
-        <v>325.431247457377</v>
+        <v>702.9469396525744</v>
       </c>
       <c r="D13" t="n">
-        <v>175.3146080450413</v>
+        <v>552.8303002402386</v>
       </c>
       <c r="E13" t="n">
-        <v>175.3146080450413</v>
+        <v>404.9172066578454</v>
       </c>
       <c r="F13" t="n">
-        <v>175.3146080450412</v>
+        <v>404.9172066578454</v>
       </c>
       <c r="G13" t="n">
-        <v>175.3146080450412</v>
+        <v>237.2143700325643</v>
       </c>
       <c r="H13" t="n">
         <v>90.99718325042214</v>
@@ -5197,13 +5197,13 @@
         <v>90.99718325042214</v>
       </c>
       <c r="J13" t="n">
-        <v>136.1198156973577</v>
+        <v>136.1198156973576</v>
       </c>
       <c r="K13" t="n">
-        <v>340.1069986462339</v>
+        <v>340.106998646234</v>
       </c>
       <c r="L13" t="n">
-        <v>656.6667970947302</v>
+        <v>656.6667970947301</v>
       </c>
       <c r="M13" t="n">
         <v>1000.823842694279</v>
@@ -5215,34 +5215,34 @@
         <v>1641.561818320557</v>
       </c>
       <c r="P13" t="n">
-        <v>1874.169318754217</v>
+        <v>1874.169318754216</v>
       </c>
       <c r="Q13" t="n">
-        <v>1951.779614906732</v>
+        <v>1951.779614906731</v>
       </c>
       <c r="R13" t="n">
-        <v>1951.779614906732</v>
+        <v>1951.779614906731</v>
       </c>
       <c r="S13" t="n">
-        <v>1951.779614906732</v>
+        <v>1760.093730733558</v>
       </c>
       <c r="T13" t="n">
-        <v>1730.012999476258</v>
+        <v>1538.327115303083</v>
       </c>
       <c r="U13" t="n">
-        <v>1440.910132601901</v>
+        <v>1389.289843515459</v>
       </c>
       <c r="V13" t="n">
-        <v>1186.225644396014</v>
+        <v>1389.289843515459</v>
       </c>
       <c r="W13" t="n">
-        <v>896.8084743590538</v>
+        <v>1099.872673478499</v>
       </c>
       <c r="X13" t="n">
-        <v>896.8084743590538</v>
+        <v>871.8831225804813</v>
       </c>
       <c r="Y13" t="n">
-        <v>676.0158952155236</v>
+        <v>871.8831225804813</v>
       </c>
     </row>
     <row r="14">
@@ -5255,40 +5255,40 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001593</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O14" t="n">
         <v>3482.142110232732</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>263.2638710736754</v>
+        <v>413.3805104860111</v>
       </c>
       <c r="C16" t="n">
-        <v>263.2638710736754</v>
+        <v>413.3805104860111</v>
       </c>
       <c r="D16" t="n">
         <v>263.2638710736754</v>
@@ -5467,19 +5467,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1256.147659358071</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1001.463171152184</v>
+        <v>999.1036114208127</v>
       </c>
       <c r="W16" t="n">
-        <v>712.0460011152229</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X16" t="n">
-        <v>484.0564502172056</v>
+        <v>634.1730896295412</v>
       </c>
       <c r="Y16" t="n">
-        <v>263.2638710736754</v>
+        <v>413.3805104860111</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5516,16 +5516,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1034.340101969334</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
         <v>3482.142110232732</v>
@@ -5558,7 +5558,7 @@
         <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="18">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>579.0900014994926</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5674,7 +5674,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518531</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952191</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104705</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104705</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1861.076656658244</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1861.076656658244</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1571.973789783888</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1317.289301578001</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W19" t="n">
-        <v>1027.87213154104</v>
+        <v>619.85598414138</v>
       </c>
       <c r="X19" t="n">
-        <v>799.8825806430227</v>
+        <v>391.8664332433626</v>
       </c>
       <c r="Y19" t="n">
-        <v>579.0900014994926</v>
+        <v>171.0738540998325</v>
       </c>
     </row>
     <row r="20">
@@ -5756,22 +5756,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>727.0030950818858</v>
+        <v>561.2936040684041</v>
       </c>
       <c r="C22" t="n">
-        <v>558.0669121539789</v>
+        <v>561.2936040684041</v>
       </c>
       <c r="D22" t="n">
-        <v>558.0669121539789</v>
+        <v>411.1769646560684</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1538185715858</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5908,10 +5908,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5929,31 +5929,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
         <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1576.146594015848</v>
       </c>
       <c r="U22" t="n">
-        <v>1452.753218154973</v>
+        <v>1287.043727141491</v>
       </c>
       <c r="V22" t="n">
-        <v>1198.068729949086</v>
+        <v>1032.359238935604</v>
       </c>
       <c r="W22" t="n">
-        <v>908.6515599121255</v>
+        <v>742.9420688986438</v>
       </c>
       <c r="X22" t="n">
-        <v>908.6515599121255</v>
+        <v>742.9420688986438</v>
       </c>
       <c r="Y22" t="n">
-        <v>908.6515599121255</v>
+        <v>742.9420688986438</v>
       </c>
     </row>
     <row r="23">
@@ -5969,16 +5969,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5996,13 +5996,13 @@
         <v>1236.699401366028</v>
       </c>
       <c r="M23" t="n">
-        <v>1770.231306037953</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903277</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P23" t="n">
         <v>4195.497197679678</v>
@@ -6069,10 +6069,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>488.8938622403221</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>319.9576793124152</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>169.8410399000794</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>169.8410399000794</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>169.8410399000794</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6151,10 +6151,10 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
         <v>1346.796070598116</v>
@@ -6166,31 +6166,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838522</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>709.6864413838522</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>488.8938622403221</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6200,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1898.858917622688</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2432.390822294613</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>2979.169639353395</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q26" t="n">
         <v>4653.975400188666</v>
@@ -6257,19 +6257,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6306,10 +6306,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305362</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305361</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305361</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305361</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305362</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305362</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6412,22 +6412,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1523.764876389288</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1234.662009514931</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783409</v>
+        <v>979.9775213090442</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413801</v>
+        <v>690.5603512720836</v>
       </c>
       <c r="X28" t="n">
-        <v>391.8664332433627</v>
+        <v>462.5708003740663</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.0738540998326</v>
+        <v>241.7782212305362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6467,22 +6467,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1963.918173296941</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6622,7 +6622,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6640,10 +6640,10 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
         <v>1674.827124689058</v>
@@ -6658,13 +6658,13 @@
         <v>909.2731541783404</v>
       </c>
       <c r="W31" t="n">
-        <v>619.8559841413796</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X31" t="n">
-        <v>391.8664332433623</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.0738540998322</v>
+        <v>171.0738540998324</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
         <v>1646.988141143014</v>
@@ -6686,10 +6686,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6713,10 +6713,10 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188666</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6838,10 +6838,10 @@
         <v>95.56103444839437</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
         <v>95.56103444839442</v>
@@ -6859,10 +6859,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6871,28 +6871,28 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783406</v>
       </c>
       <c r="W34" t="n">
         <v>725.9916293201816</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2139.123333047749</v>
+        <v>2139.12333304775</v>
       </c>
       <c r="C35" t="n">
         <v>1802.338352862866</v>
@@ -6926,40 +6926,40 @@
         <v>743.8311071348464</v>
       </c>
       <c r="G35" t="n">
-        <v>360.9361937353708</v>
+        <v>360.9361937353706</v>
       </c>
       <c r="H35" t="n">
-        <v>95.53013009966494</v>
+        <v>95.53013009966506</v>
       </c>
       <c r="I35" t="n">
-        <v>85.71076809466143</v>
+        <v>85.71076809466146</v>
       </c>
       <c r="J35" t="n">
         <v>441.9955480740399</v>
       </c>
       <c r="K35" t="n">
-        <v>1020.370642361883</v>
+        <v>1096.718880209339</v>
       </c>
       <c r="L35" t="n">
-        <v>1471.404855610292</v>
+        <v>1547.753093457748</v>
       </c>
       <c r="M35" t="n">
-        <v>2004.936760282217</v>
+        <v>2081.284998129673</v>
       </c>
       <c r="N35" t="n">
-        <v>2551.715577340999</v>
+        <v>2628.063815188455</v>
       </c>
       <c r="O35" t="n">
-        <v>3054.688048220336</v>
+        <v>3131.036286067792</v>
       </c>
       <c r="P35" t="n">
-        <v>3768.043135667282</v>
+        <v>3702.983879993029</v>
       </c>
       <c r="Q35" t="n">
-        <v>4226.52133817627</v>
+        <v>4161.462082502017</v>
       </c>
       <c r="R35" t="n">
-        <v>4285.538404733072</v>
+        <v>4285.538404733073</v>
       </c>
       <c r="S35" t="n">
         <v>4207.425273015695</v>
@@ -6968,16 +6968,16 @@
         <v>4033.625062155445</v>
       </c>
       <c r="U35" t="n">
-        <v>3812.272122184809</v>
+        <v>3812.27212218481</v>
       </c>
       <c r="V35" t="n">
         <v>3513.386771596766</v>
       </c>
       <c r="W35" t="n">
-        <v>3192.795653082179</v>
+        <v>3192.79565308218</v>
       </c>
       <c r="X35" t="n">
-        <v>2851.507431576627</v>
+        <v>2851.507431576628</v>
       </c>
       <c r="Y35" t="n">
         <v>2493.545636356343</v>
@@ -7011,16 +7011,16 @@
         <v>104.7180596931235</v>
       </c>
       <c r="I36" t="n">
-        <v>85.71076809466143</v>
+        <v>85.71076809466146</v>
       </c>
       <c r="J36" t="n">
-        <v>179.3880375852789</v>
+        <v>179.3880375852788</v>
       </c>
       <c r="K36" t="n">
-        <v>417.6522365656261</v>
+        <v>417.6522365656259</v>
       </c>
       <c r="L36" t="n">
-        <v>784.3503968782915</v>
+        <v>784.3503968782913</v>
       </c>
       <c r="M36" t="n">
         <v>1231.626722100607</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>521.4705839083517</v>
+        <v>521.4705839083501</v>
       </c>
       <c r="C37" t="n">
-        <v>521.4705839083517</v>
+        <v>515.136269159539</v>
       </c>
       <c r="D37" t="n">
-        <v>403.5314812515437</v>
+        <v>515.136269159539</v>
       </c>
       <c r="E37" t="n">
-        <v>287.7959244246783</v>
+        <v>515.136269159539</v>
       </c>
       <c r="F37" t="n">
-        <v>221.2360679644147</v>
+        <v>400.4238584171563</v>
       </c>
       <c r="G37" t="n">
-        <v>85.71076809466143</v>
+        <v>264.898558547403</v>
       </c>
       <c r="H37" t="n">
-        <v>85.71076809466143</v>
+        <v>150.8589085207884</v>
       </c>
       <c r="I37" t="n">
-        <v>85.71076809466143</v>
+        <v>85.71076809466146</v>
       </c>
       <c r="J37" t="n">
         <v>162.3706043156897</v>
       </c>
       <c r="K37" t="n">
-        <v>397.8949910386589</v>
+        <v>397.8949910386588</v>
       </c>
       <c r="L37" t="n">
-        <v>745.9919932612478</v>
+        <v>745.9919932612476</v>
       </c>
       <c r="M37" t="n">
         <v>1121.686242634889</v>
@@ -7126,19 +7126,19 @@
         <v>1792.040483364176</v>
       </c>
       <c r="U37" t="n">
-        <v>1535.115153245348</v>
+        <v>1535.115153245347</v>
       </c>
       <c r="V37" t="n">
         <v>1312.608201794988</v>
       </c>
       <c r="W37" t="n">
-        <v>1055.368568513556</v>
+        <v>1055.368568513555</v>
       </c>
       <c r="X37" t="n">
-        <v>859.5565543710661</v>
+        <v>859.5565543710645</v>
       </c>
       <c r="Y37" t="n">
-        <v>670.9415119830637</v>
+        <v>670.9415119830621</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J38" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>1045.699547878784</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L38" t="n">
-        <v>1496.733761127192</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M38" t="n">
-        <v>2030.265665799117</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N38" t="n">
-        <v>2577.044482857899</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O38" t="n">
-        <v>3080.016953737236</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094414</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W38" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873065</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L40" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M40" t="n">
         <v>1176.995117350172</v>
@@ -7351,31 +7351,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V40" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X40" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="41">
@@ -7409,28 +7409,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>625.3777437664567</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L41" t="n">
-        <v>1076.411957014865</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M41" t="n">
-        <v>1609.94386168679</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N41" t="n">
-        <v>2156.722678745572</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O41" t="n">
-        <v>3036.687329075027</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P41" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q41" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R41" t="n">
         <v>4057.345844834458</v>
@@ -7558,7 +7558,7 @@
         <v>350.0437186415472</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
@@ -7567,7 +7567,7 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K43" t="n">
         <v>423.2675027973143</v>
@@ -7576,7 +7576,7 @@
         <v>786.3326864982171</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N43" t="n">
         <v>1564.908879308444</v>
@@ -7585,7 +7585,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q43" t="n">
         <v>2313.972430572251</v>
@@ -7634,13 +7634,13 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398484</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668888</v>
       </c>
       <c r="I44" t="n">
         <v>81.14691689668915</v>
@@ -7649,19 +7649,19 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K44" t="n">
-        <v>771.2510705659141</v>
+        <v>1045.699547878783</v>
       </c>
       <c r="L44" t="n">
-        <v>1222.285283814323</v>
+        <v>1496.733761127192</v>
       </c>
       <c r="M44" t="n">
-        <v>1755.817188486248</v>
+        <v>2030.265665799117</v>
       </c>
       <c r="N44" t="n">
-        <v>2302.59600554503</v>
+        <v>2577.044482857899</v>
       </c>
       <c r="O44" t="n">
-        <v>2805.568476424367</v>
+        <v>3080.016953737236</v>
       </c>
       <c r="P44" t="n">
         <v>3474.791320094414</v>
@@ -7670,7 +7670,7 @@
         <v>3933.269522603402</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S44" t="n">
         <v>3994.504809309626</v>
@@ -7789,7 +7789,7 @@
         <v>549.9474938257041</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F46" t="n">
         <v>350.0437186415472</v>
@@ -7804,7 +7804,7 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K46" t="n">
         <v>423.2675027973143</v>
@@ -7825,28 +7825,28 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T46" t="n">
         <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V46" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y46" t="n">
         <v>908.2998821519666</v>
@@ -8067,16 +8067,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>298.0022987571356</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>297.6621116988017</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>49.53786909056629</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451751</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,13 +8535,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8693,7 +8693,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>118.8149991015806</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>118.8149991015795</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8936,10 +8936,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>132.9990175570125</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9164,10 +9164,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>251.1867816683982</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9404,7 +9404,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,16 +9644,16 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>288.0478149561031</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>103.7862464855144</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>67.53663776704306</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>410.4190035206666</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10361,13 +10361,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>176.2173930448432</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>247.0259804020171</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>178.9628561293528</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>277.2206841544135</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>277.2206841544144</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>21.74982042514705</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11072,16 +11072,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>277.2206841544135</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>277.220684154413</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>277.2206841544135</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>179.8154918407099</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>17.4744514740151</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>61.28076436764786</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>138.6649391358645</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23656,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>2.335964134057241</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>150.9514371522694</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,10 +23899,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>95.45488397944551</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>32.92307123964414</v>
       </c>
       <c r="U22" t="n">
-        <v>196.975467342991</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>92.48860286186007</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>105.0742887270144</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>105.0742887270135</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24616,7 +24616,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>69.99732345939671</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>105.0742887270139</v>
+        <v>105.0742887270137</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>105.0742887270144</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>135.3910597106554</v>
+        <v>129.1200881093324</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>116.75971163024</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>114.5782012585968</v>
       </c>
       <c r="F37" t="n">
-        <v>47.67102873929804</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>112.8992535263483</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>64.49665902186561</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>2.700062395888381e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1123214.955040321</v>
+        <v>1123214.955040322</v>
       </c>
     </row>
     <row r="10">
@@ -26314,7 +26314,7 @@
         <v>307890.6636991062</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991065</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="D2" t="n">
         <v>307890.6636991064</v>
@@ -26323,19 +26323,19 @@
         <v>291202.7763800705</v>
       </c>
       <c r="F2" t="n">
+        <v>297811.3401652377</v>
+      </c>
+      <c r="G2" t="n">
         <v>297811.3401652375</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>297811.3401652376</v>
       </c>
-      <c r="H2" t="n">
-        <v>297811.3401652375</v>
-      </c>
       <c r="I2" t="n">
-        <v>297811.3401652377</v>
+        <v>297811.3401652376</v>
       </c>
       <c r="J2" t="n">
-        <v>297811.3401652375</v>
+        <v>297811.3401652376</v>
       </c>
       <c r="K2" t="n">
         <v>297811.3401652375</v>
@@ -26344,7 +26344,7 @@
         <v>297811.3401652375</v>
       </c>
       <c r="M2" t="n">
-        <v>304646.5416901232</v>
+        <v>304646.5416901229</v>
       </c>
       <c r="N2" t="n">
         <v>307890.6636991064</v>
@@ -26353,7 +26353,7 @@
         <v>307890.6636991065</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.6636991065</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>524572.100942364</v>
+        <v>524572.1009423635</v>
       </c>
       <c r="C3" t="n">
-        <v>62156.63307939706</v>
+        <v>62156.63307939754</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>710344.0944560547</v>
+        <v>710344.0944560546</v>
       </c>
       <c r="F3" t="n">
-        <v>16345.77535437761</v>
+        <v>16345.77535437757</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>161731.4878927421</v>
+        <v>161731.487892742</v>
       </c>
       <c r="K3" t="n">
-        <v>14451.62702443015</v>
+        <v>14451.6270244303</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>110226.2270698832</v>
       </c>
       <c r="N3" t="n">
-        <v>12095.50018449607</v>
+        <v>12095.50018449614</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>236173.1445153633</v>
+        <v>236173.1445153634</v>
       </c>
       <c r="C4" t="n">
         <v>218780.3249983351</v>
@@ -26424,40 +26424,40 @@
         <v>218780.3249983351</v>
       </c>
       <c r="E4" t="n">
-        <v>27960.33741398216</v>
+        <v>27960.33741398218</v>
       </c>
       <c r="F4" t="n">
+        <v>32032.95503079769</v>
+      </c>
+      <c r="G4" t="n">
+        <v>32032.95503079769</v>
+      </c>
+      <c r="H4" t="n">
+        <v>32032.9550307977</v>
+      </c>
+      <c r="I4" t="n">
         <v>32032.95503079768</v>
       </c>
-      <c r="G4" t="n">
-        <v>32032.95503079772</v>
-      </c>
-      <c r="H4" t="n">
-        <v>32032.95503079769</v>
-      </c>
-      <c r="I4" t="n">
-        <v>32032.95503079767</v>
-      </c>
       <c r="J4" t="n">
-        <v>32032.95503079769</v>
+        <v>32032.9550307977</v>
       </c>
       <c r="K4" t="n">
-        <v>32032.95503079769</v>
+        <v>32032.9550307977</v>
       </c>
       <c r="L4" t="n">
-        <v>32032.95503079769</v>
+        <v>32032.95503079768</v>
       </c>
       <c r="M4" t="n">
-        <v>55434.63300596872</v>
+        <v>55434.63300596864</v>
       </c>
       <c r="N4" t="n">
-        <v>66395.57832303867</v>
+        <v>66395.5783230387</v>
       </c>
       <c r="O4" t="n">
         <v>66395.57832303869</v>
       </c>
       <c r="P4" t="n">
-        <v>66395.57832303869</v>
+        <v>66395.57832303867</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78391.31548084111</v>
+        <v>78391.31548084109</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26500,16 +26500,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>91575.39782900205</v>
+        <v>91575.39782900206</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="O5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-531245.8972394621</v>
+        <v>-531245.8972394618</v>
       </c>
       <c r="C6" t="n">
-        <v>-55905.37244203506</v>
+        <v>-55905.37244203564</v>
       </c>
       <c r="D6" t="n">
-        <v>6251.260637361847</v>
+        <v>6251.260637361818</v>
       </c>
       <c r="E6" t="n">
-        <v>-540016.6468332211</v>
+        <v>-540127.8994153478</v>
       </c>
       <c r="F6" t="n">
-        <v>153049.0915263486</v>
+        <v>152981.8960361229</v>
       </c>
       <c r="G6" t="n">
-        <v>169394.8668807262</v>
+        <v>169327.6713905004</v>
       </c>
       <c r="H6" t="n">
-        <v>169394.8668807262</v>
+        <v>169327.6713905004</v>
       </c>
       <c r="I6" t="n">
-        <v>169394.8668807263</v>
+        <v>169327.6713905004</v>
       </c>
       <c r="J6" t="n">
-        <v>7663.378987984019</v>
+        <v>7596.18349775843</v>
       </c>
       <c r="K6" t="n">
-        <v>154943.239856296</v>
+        <v>154876.0443660701</v>
       </c>
       <c r="L6" t="n">
-        <v>169394.8668807262</v>
+        <v>169327.6713905004</v>
       </c>
       <c r="M6" t="n">
-        <v>47410.28378526914</v>
+        <v>47388.65630520909</v>
       </c>
       <c r="N6" t="n">
-        <v>140021.6435167655</v>
+        <v>140021.6435167654</v>
       </c>
       <c r="O6" t="n">
         <v>152117.1437012617</v>
       </c>
       <c r="P6" t="n">
-        <v>152117.1437012615</v>
+        <v>152117.1437012618</v>
       </c>
     </row>
   </sheetData>
@@ -26716,10 +26716,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859256</v>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>329.406745791584</v>
+        <v>329.4067457915837</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>618.1356648451412</v>
+        <v>618.1356648451408</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26823,7 +26823,7 @@
         <v>1071.384601183268</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="O4" t="n">
         <v>1014.336461208614</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="N2" t="n">
-        <v>15.11937523062009</v>
+        <v>15.11937523062018</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>329.406745791584</v>
+        <v>329.4067457915837</v>
       </c>
       <c r="C3" t="n">
-        <v>48.33691842550263</v>
+        <v>48.33691842550299</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762118</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>618.1356648451412</v>
+        <v>618.1356648451408</v>
       </c>
       <c r="C4" t="n">
-        <v>56.15160790941434</v>
+        <v>56.15160790941479</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>463.177517875721</v>
       </c>
       <c r="F4" t="n">
-        <v>57.04813997465362</v>
+        <v>57.04813997465351</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>618.1356648451412</v>
+        <v>618.1356648451408</v>
       </c>
       <c r="K4" t="n">
-        <v>56.15160790941434</v>
+        <v>56.15160790941491</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.0491884540587</v>
+        <v>340.0491884540589</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>618.1356648451412</v>
+        <v>618.1356648451408</v>
       </c>
       <c r="K4" t="n">
-        <v>56.15160790941434</v>
+        <v>56.15160790941479</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>463.177517875721</v>
       </c>
       <c r="N4" t="n">
-        <v>57.04813997465362</v>
+        <v>57.04813997465351</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>338.2689830647855</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>178.8437631752877</v>
+        <v>143.8364113294213</v>
       </c>
       <c r="T2" t="n">
         <v>217.2989529623116</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>38.61181905006917</v>
+        <v>65.00188799798175</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.16649553541988</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>29.77642658750861</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27540,16 +27540,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>131.0483317234928</v>
       </c>
       <c r="G4" t="n">
-        <v>55.77129795980449</v>
+        <v>167.3969671939166</v>
       </c>
       <c r="H4" t="n">
         <v>156.9458643536007</v>
@@ -27558,7 +27558,7 @@
         <v>137.5869091062983</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>51.36252008353923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>36.4216246371652</v>
+        <v>36.42162463716524</v>
       </c>
       <c r="R4" t="n">
-        <v>150.5844444151174</v>
+        <v>150.5844444151175</v>
       </c>
       <c r="S4" t="n">
         <v>213.6645860421777</v>
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>67.10258668551074</v>
       </c>
       <c r="D5" t="n">
-        <v>100.3558755794339</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>2.842170943040401e-13</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>114.5149682797107</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>187.0787934150499</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,16 +27853,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>129.3735600826093</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>27.70894570750249</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>106.5182725406178</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,22 +28017,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>243.2051448974512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.70530256582424e-12</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="C35" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="D35" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="E35" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="F35" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="G35" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="H35" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="I35" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="T35" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="U35" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="V35" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="W35" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="X35" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="C37" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="D37" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="E37" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="F37" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="G37" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="H37" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="I37" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="J37" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="K37" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="L37" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="M37" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="N37" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="O37" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="P37" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="R37" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="S37" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="T37" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="U37" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="V37" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="W37" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="X37" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.85576138797248</v>
+        <v>31.8557613879724</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="41">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.324248224287774</v>
+        <v>1.324248224287773</v>
       </c>
       <c r="H2" t="n">
-        <v>13.56195712698717</v>
+        <v>13.56195712698716</v>
       </c>
       <c r="I2" t="n">
-        <v>51.05307966685445</v>
+        <v>51.05307966685441</v>
       </c>
       <c r="J2" t="n">
-        <v>112.3939127261445</v>
+        <v>112.3939127261444</v>
       </c>
       <c r="K2" t="n">
-        <v>168.449340060246</v>
+        <v>168.4493400602459</v>
       </c>
       <c r="L2" t="n">
-        <v>208.9763016542931</v>
+        <v>208.9763016542929</v>
       </c>
       <c r="M2" t="n">
-        <v>232.5264010129708</v>
+        <v>232.5264010129706</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2889212802284</v>
+        <v>236.2889212802282</v>
       </c>
       <c r="O2" t="n">
-        <v>223.1209279999668</v>
+        <v>223.1209279999667</v>
       </c>
       <c r="P2" t="n">
-        <v>190.4285499628624</v>
+        <v>190.4285499628622</v>
       </c>
       <c r="Q2" t="n">
-        <v>143.0039104305564</v>
+        <v>143.0039104305563</v>
       </c>
       <c r="R2" t="n">
-        <v>83.18430751891695</v>
+        <v>83.18430751891688</v>
       </c>
       <c r="S2" t="n">
-        <v>30.17630641095768</v>
+        <v>30.17630641095765</v>
       </c>
       <c r="T2" t="n">
-        <v>5.796896601819733</v>
+        <v>5.796896601819728</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1059398579430219</v>
+        <v>0.1059398579430218</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7085352645328411</v>
+        <v>0.7085352645328404</v>
       </c>
       <c r="H3" t="n">
-        <v>6.842959002198755</v>
+        <v>6.84295900219875</v>
       </c>
       <c r="I3" t="n">
-        <v>24.39474485343335</v>
+        <v>24.39474485343333</v>
       </c>
       <c r="J3" t="n">
-        <v>66.94104444430673</v>
+        <v>66.94104444430666</v>
       </c>
       <c r="K3" t="n">
-        <v>114.4129071680071</v>
+        <v>114.412907168007</v>
       </c>
       <c r="L3" t="n">
-        <v>153.8422731170978</v>
+        <v>153.8422731170977</v>
       </c>
       <c r="M3" t="n">
-        <v>179.5266764564133</v>
+        <v>179.5266764564131</v>
       </c>
       <c r="N3" t="n">
-        <v>184.2782133839164</v>
+        <v>184.2782133839163</v>
       </c>
       <c r="O3" t="n">
-        <v>168.5785635750571</v>
+        <v>168.578563575057</v>
       </c>
       <c r="P3" t="n">
-        <v>135.2991594176791</v>
+        <v>135.299159417679</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.4439049954553</v>
+        <v>90.44390499545523</v>
       </c>
       <c r="R3" t="n">
-        <v>43.99133861722326</v>
+        <v>43.99133861722321</v>
       </c>
       <c r="S3" t="n">
-        <v>13.16073177761658</v>
+        <v>13.16073177761657</v>
       </c>
       <c r="T3" t="n">
-        <v>2.855894333796845</v>
+        <v>2.855894333796843</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04661416214031851</v>
+        <v>0.04661416214031847</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5940121645422006</v>
+        <v>0.5940121645422001</v>
       </c>
       <c r="H4" t="n">
-        <v>5.281308153838842</v>
+        <v>5.281308153838837</v>
       </c>
       <c r="I4" t="n">
-        <v>17.86356582096</v>
+        <v>17.86356582095999</v>
       </c>
       <c r="J4" t="n">
-        <v>41.99666003313358</v>
+        <v>41.99666003313354</v>
       </c>
       <c r="K4" t="n">
-        <v>69.0134132986302</v>
+        <v>69.01341329863014</v>
       </c>
       <c r="L4" t="n">
-        <v>88.313408535665</v>
+        <v>88.31340853566492</v>
       </c>
       <c r="M4" t="n">
-        <v>93.11410684728331</v>
+        <v>93.11410684728322</v>
       </c>
       <c r="N4" t="n">
-        <v>90.90006150671699</v>
+        <v>90.90006150671692</v>
       </c>
       <c r="O4" t="n">
-        <v>83.96091940274671</v>
+        <v>83.96091940274664</v>
       </c>
       <c r="P4" t="n">
-        <v>71.84307124608576</v>
+        <v>71.8430712460857</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.74041861452918</v>
+        <v>49.74041861452914</v>
       </c>
       <c r="R4" t="n">
-        <v>26.70894696205203</v>
+        <v>26.70894696205201</v>
       </c>
       <c r="S4" t="n">
-        <v>10.35201199479453</v>
+        <v>10.35201199479452</v>
       </c>
       <c r="T4" t="n">
-        <v>2.53805197577122</v>
+        <v>2.538051975771218</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03240066352048371</v>
+        <v>0.03240066352048368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32333,7 +32333,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32789,7 +32789,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33035,7 +33035,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.461131202644</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33989,10 +33989,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34463,7 +34463,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>100.444623371532</v>
+        <v>100.4446233715319</v>
       </c>
       <c r="K2" t="n">
-        <v>272.5049015864303</v>
+        <v>272.5049015864301</v>
       </c>
       <c r="L2" t="n">
-        <v>390.8711012347562</v>
+        <v>390.8711012347561</v>
       </c>
       <c r="M2" t="n">
-        <v>451.6937012785305</v>
+        <v>451.6937012785303</v>
       </c>
       <c r="N2" t="n">
-        <v>444.2227820956217</v>
+        <v>444.2227820956215</v>
       </c>
       <c r="O2" t="n">
-        <v>373.8228978410255</v>
+        <v>373.8228978410253</v>
       </c>
       <c r="P2" t="n">
-        <v>280.9942623790755</v>
+        <v>280.9942623790753</v>
       </c>
       <c r="Q2" t="n">
-        <v>133.0132112160116</v>
+        <v>133.0132112160115</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>66.19445311804887</v>
+        <v>66.1944531180488</v>
       </c>
       <c r="K3" t="n">
-        <v>241.0367052062267</v>
+        <v>241.0367052062266</v>
       </c>
       <c r="L3" t="n">
-        <v>386.1282386406828</v>
+        <v>386.1282386406826</v>
       </c>
       <c r="M3" t="n">
-        <v>503.0977062843949</v>
+        <v>503.0977062843947</v>
       </c>
       <c r="N3" t="n">
-        <v>350.9388000577187</v>
+        <v>532.2788756441365</v>
       </c>
       <c r="O3" t="n">
-        <v>419.8446384073422</v>
+        <v>419.8446384073421</v>
       </c>
       <c r="P3" t="n">
-        <v>319.787520643286</v>
+        <v>298.9868637021504</v>
       </c>
       <c r="Q3" t="n">
-        <v>160.5394186452829</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>46.74392147274735</v>
+        <v>46.74392147274729</v>
       </c>
       <c r="L4" t="n">
         <v>115.9034337959811</v>
       </c>
       <c r="M4" t="n">
-        <v>132.6979838091239</v>
+        <v>132.6979838091238</v>
       </c>
       <c r="N4" t="n">
-        <v>135.0322338859456</v>
+        <v>135.0322338859455</v>
       </c>
       <c r="O4" t="n">
-        <v>108.5460473167864</v>
+        <v>108.5460473167863</v>
       </c>
       <c r="P4" t="n">
-        <v>69.12163051097924</v>
+        <v>69.12163051097919</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>574.4051134939127</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>626.8679999897988</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
@@ -35656,10 +35656,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>685.300852969924</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
@@ -35884,10 +35884,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>588.3780682237987</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -35896,7 +35896,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
@@ -35981,7 +35981,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36054,7 +36054,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226415</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
@@ -36124,7 +36124,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
@@ -36133,7 +36133,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36142,7 +36142,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36291,7 +36291,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226396</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
@@ -36364,16 +36364,16 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>840.3496503690146</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>502.5482327048862</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636242</v>
@@ -36437,7 +36437,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>318.3309425707625</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36683,7 +36683,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36835,7 +36835,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>866.0091179129988</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36844,7 +36844,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -36853,7 +36853,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37081,13 +37081,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>427.0116978485627</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37306,7 +37306,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>584.2172669574176</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
@@ -37321,13 +37321,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>577.7248423487247</v>
       </c>
       <c r="Q35" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597728</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>77.4341780010387</v>
+        <v>77.43417800103862</v>
       </c>
       <c r="K37" t="n">
-        <v>237.9034209322921</v>
+        <v>237.903420932292</v>
       </c>
       <c r="L37" t="n">
-        <v>351.6131335581706</v>
+        <v>351.6131335581705</v>
       </c>
       <c r="M37" t="n">
-        <v>379.4891407814563</v>
+        <v>379.4891407814562</v>
       </c>
       <c r="N37" t="n">
-        <v>376.7127075555126</v>
+        <v>376.7127075555125</v>
       </c>
       <c r="O37" t="n">
         <v>334.2088916106122</v>
       </c>
       <c r="P37" t="n">
-        <v>266.8128325330829</v>
+        <v>266.8128325330828</v>
       </c>
       <c r="Q37" t="n">
-        <v>110.2499999258661</v>
+        <v>110.249999925866</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>614.411970709814</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
@@ -37558,7 +37558,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737863</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
@@ -37637,10 +37637,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>358.9411069805475</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -37792,16 +37792,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>675.9826703737854</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38017,7 +38017,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>614.4119707098135</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
@@ -38032,7 +38032,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>675.9826703737854</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
         <v>463.1092954636242</v>
@@ -38111,7 +38111,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
